--- a/csv_json_text_parquet-Data_Sources-Properties.xlsx
+++ b/csv_json_text_parquet-Data_Sources-Properties.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A711ACC-B884-4084-B625-E1CD62095BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8A56C4-309E-42A0-9DE8-80ED3855575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{F6573CF8-454A-46D0-A947-23DB58A514EA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{F6573CF8-454A-46D0-A947-23DB58A514EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV" sheetId="1" r:id="rId1"/>
     <sheet name="JSON" sheetId="2" r:id="rId2"/>
     <sheet name="text" sheetId="3" r:id="rId3"/>
     <sheet name="Parquet" sheetId="4" r:id="rId4"/>
+    <sheet name="Compression Codecs" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CSV!$A$1:$D$1</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="216">
   <si>
     <t>Property Name</t>
   </si>
@@ -478,6 +479,239 @@
   </si>
   <si>
     <t>(none, uncompressed, snappy, gzip, lzo, brotli, lz4, zstd)</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BZip2</t>
+  </si>
+  <si>
+    <t>Gzip</t>
+  </si>
+  <si>
+    <t>LZ4</t>
+  </si>
+  <si>
+    <t>Snappy</t>
+  </si>
+  <si>
+    <t>Deflate</t>
+  </si>
+  <si>
+    <t>Uncompressed</t>
+  </si>
+  <si>
+    <t>LZO</t>
+  </si>
+  <si>
+    <t>Brotli</t>
+  </si>
+  <si>
+    <t>ZSTD</t>
+  </si>
+  <si>
+    <t>Compression Ratio</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>✅ High</t>
+  </si>
+  <si>
+    <t>⚠️ Med</t>
+  </si>
+  <si>
+    <t>Compression Speed</t>
+  </si>
+  <si>
+    <t>✅ N/A</t>
+  </si>
+  <si>
+    <t>❌ Slow</t>
+  </si>
+  <si>
+    <t>✅ Fast</t>
+  </si>
+  <si>
+    <t>Decompression Speed</t>
+  </si>
+  <si>
+    <t>CPU Usage</t>
+  </si>
+  <si>
+    <t>✅ Low</t>
+  </si>
+  <si>
+    <t>❌ High</t>
+  </si>
+  <si>
+    <t>Splittability</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
+  <si>
+    <t>⚠️ Newer</t>
+  </si>
+  <si>
+    <t>⚠️ Less</t>
+  </si>
+  <si>
+    <t>Use Case Fit</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Fast I/O</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Raw files</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>Archival</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>File Size</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Smallest</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Largest</t>
+  </si>
+  <si>
+    <t>Ecosystem Support</t>
+  </si>
+  <si>
+    <t>⚠️ Growing</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>✔️ Open</t>
+  </si>
+  <si>
+    <t>Error Resilience</t>
+  </si>
+  <si>
+    <t>⚠️ None</t>
+  </si>
+  <si>
+    <t>✅ Good</t>
+  </si>
+  <si>
+    <t>⚠️ Poor</t>
+  </si>
+  <si>
+    <t>Config Options</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Cluster Resource Use</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>✅ Notes:
+None/Uncompressed = no compression applied; fast but large files.
+Splittability is critical for distributed processing. Avoid non-splittable codecs like Gzip for massive files.
+Snappy is the most balanced for performance and support.
+Brotli and ZSTD are excellent modern codecs with strong ratios and fast decompression, but may have limited support in older Hadoop ecosystems.
+LZO requires manual installation of native libraries in some environments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Higher ratio (e.g., bzip2, zstd) reduces storage but may increase processing time.</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Faster codecs (e.g., snappy, lz4) minimize compute overhead, ideal for real-time tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Critical for read-heavy workloads (e.g., lz4, snappy excel here).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High-compression codecs (e.g., bzip2, brotli) demand more CPU, impacting cluster performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Splittable codecs (e.g., bzip2, lzo) allow parallel processing of compressed files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ensure codec support in your Spark version and cluster (e.g., lzo needs external libraries).</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Archival (bzip2, zstd), real-time (snappy, lz4), or balanced (gzip, deflate).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Larger datasets benefit from high-compression codecs if storage is a constraint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some codecs (e.g., gzip) are widely supported across tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some codecs (e.g., LZO) may have licensing restrictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codecs like gzip may handle corruption better than others.</t>
+  </si>
+  <si>
+    <t>Configuration Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codecs like zstd offer tunable parameters for flexibility.</t>
+  </si>
+  <si>
+    <t>Cluster Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Memory and network bandwidth impact codec performance.</t>
   </si>
 </sst>
 </file>
@@ -589,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -600,13 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,16 +843,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,6 +858,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C439F-701C-46F3-9744-2661AF77AB74}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -961,7 +1212,7 @@
     <col min="1" max="1" width="24.73046875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.46484375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.1328125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
@@ -975,499 +1226,499 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="b">
+      <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="b">
+      <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="b">
+      <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>20480</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>-1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="4" t="b">
+      <c r="B12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4" t="b">
+      <c r="B29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="4" t="b">
+      <c r="B39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="4" t="b">
+      <c r="B40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1523,392 +1774,392 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="4" t="b">
+      <c r="B2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="4" t="b">
+      <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="4" t="b">
+      <c r="B4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="b">
+      <c r="B5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="4" t="b">
+      <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="4" t="b">
+      <c r="B7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="4" t="b">
+      <c r="B8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="b">
+      <c r="B11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="1" t="b">
+      <c r="B16" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="4" t="b">
+      <c r="B20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="4" t="b">
+      <c r="B22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1946,66 +2197,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.19921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.1328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="12"/>
+    <col min="1" max="1" width="13.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="121.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="14" t="b">
+      <c r="B2" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2065,4 +2316,766 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E73489-B73D-4F45-98F1-941F3A42C6E3}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.06640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.06640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="16"/>
+    <col min="7" max="9" width="8.06640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.06640625" style="16"/>
+    <col min="11" max="11" width="10.53125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.06640625" style="16"/>
+    <col min="14" max="14" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="77.53125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.06640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="O14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:H32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv_json_text_parquet-Data_Sources-Properties.xlsx
+++ b/csv_json_text_parquet-Data_Sources-Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8A56C4-309E-42A0-9DE8-80ED3855575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DC342C-8AD5-478D-86C8-ADEACBD8A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{F6573CF8-454A-46D0-A947-23DB58A514EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6573CF8-454A-46D0-A947-23DB58A514EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV" sheetId="1" r:id="rId1"/>
@@ -858,6 +858,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -870,23 +880,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,20 +1205,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C439F-701C-46F3-9744-2661AF77AB74}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="254.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1242,8 +1244,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="b">
@@ -1256,7 +1258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1270,7 +1272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1312,7 +1314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1326,7 +1328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1410,83 +1412,83 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1694,7 +1696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -1708,7 +1710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>77</v>
       </c>
@@ -1750,16 +1752,16 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="252.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="253" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -1913,71 +1915,71 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="14" t="b">
+      <c r="B16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -1991,7 +1993,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -2047,39 +2049,39 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>77</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>120</v>
       </c>
@@ -2195,16 +2197,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.1328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="8"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="121.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>131</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>73</v>
       </c>
@@ -2246,7 +2248,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>77</v>
       </c>
@@ -2273,42 +2275,42 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -2322,595 +2324,591 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E73489-B73D-4F45-98F1-941F3A42C6E3}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.06640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.06640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" style="16"/>
-    <col min="7" max="9" width="8.06640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" style="16"/>
-    <col min="11" max="11" width="10.53125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.06640625" style="16"/>
-    <col min="14" max="14" width="19" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="77.53125" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="16"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="77.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="15" t="s">
         <v>151</v>
       </c>
       <c r="O2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="15" t="s">
         <v>200</v>
       </c>
       <c r="O3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="15" t="s">
         <v>159</v>
       </c>
       <c r="O4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="15" t="s">
         <v>160</v>
       </c>
       <c r="O5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="15" t="s">
         <v>163</v>
       </c>
       <c r="O6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="15" t="s">
         <v>165</v>
       </c>
       <c r="O7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="15" t="s">
         <v>206</v>
       </c>
       <c r="O8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="15" t="s">
         <v>177</v>
       </c>
       <c r="O9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="15" t="s">
         <v>183</v>
       </c>
       <c r="O10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="15" t="s">
         <v>185</v>
       </c>
       <c r="O11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="15" t="s">
         <v>187</v>
       </c>
       <c r="O12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="15" t="s">
         <v>212</v>
       </c>
       <c r="O13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="15" t="s">
         <v>214</v>
       </c>
       <c r="O14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>198</v>
       </c>
@@ -2922,7 +2920,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2932,7 +2930,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2942,7 +2940,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2952,7 +2950,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2962,7 +2960,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2972,7 +2970,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2982,7 +2980,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2992,7 +2990,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -3002,7 +3000,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -3012,7 +3010,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -3022,7 +3020,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -3032,7 +3030,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -3042,7 +3040,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -3052,7 +3050,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -3062,7 +3060,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
